--- a/biology/Zoologie/Dendrerpeton/Dendrerpeton.xlsx
+++ b/biology/Zoologie/Dendrerpeton/Dendrerpeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrerpeton est un genre éteint d’amphibiens temnospondyles du Carbonifère, découvert en Nouvelle-Écosse et en Irlande.
 On les trouve généralement associés aux genres Lepidodendron et Sigillaria. Ses fossiles sont désarticulés et aplatis, difficiles à interpréter. Chez ce genre, l'étrier était utilisé comme structure de support pour l'oreille plutôt que pour entendre comme dans les tétrapodes plus tard.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les spécimens mesurent généralement 1 mètre et possèdent une large échancrure otique à l'arrière du crâne.
 </t>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous un cladogramme montrant les relations phylogénétiques de Dendrerpeton, de Berman et al., 2010:
 </t>
@@ -574,7 +590,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Holmes R. B., Carroll R. L. &amp; Reisz R. R., « The first articulated skeleton of Dendrerpeton acadianum (Temnospondyli, Dendrerpetontidae) from the lower Pennsylvanian locality of Joggins, Nova Scotia, and a review of its relationships » dans Journal of Vertebrate Paleontology n° 18,  1998, pp. 64-79.
 Milner A. R., « The temnospondyl amphibian Dendrerpeton from the Upper Carboniferous of Ireland ». Palaeontology n° 23, 1980, pp. 125–141.
